--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H2">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I2">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J2">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>1.492962168757778</v>
+        <v>0.3666419050511111</v>
       </c>
       <c r="R2">
-        <v>13.43665951882</v>
+        <v>3.29977714546</v>
       </c>
       <c r="S2">
-        <v>0.02005000991754841</v>
+        <v>0.004948805447839964</v>
       </c>
       <c r="T2">
-        <v>0.02005000991754841</v>
+        <v>0.004948805447839966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H3">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I3">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J3">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>1.761310311484445</v>
+        <v>0.1229821887911111</v>
       </c>
       <c r="R3">
-        <v>15.85179280336</v>
+        <v>1.10683969912</v>
       </c>
       <c r="S3">
-        <v>0.02365384063450631</v>
+        <v>0.00165997098938238</v>
       </c>
       <c r="T3">
-        <v>0.02365384063450631</v>
+        <v>0.001659970989382381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H4">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I4">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J4">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>0.2254364723666667</v>
+        <v>0.02108355728111111</v>
       </c>
       <c r="R4">
-        <v>2.0289282513</v>
+        <v>0.18975201553</v>
       </c>
       <c r="S4">
-        <v>0.003027540550802887</v>
+        <v>0.0002845785538836961</v>
       </c>
       <c r="T4">
-        <v>0.003027540550802887</v>
+        <v>0.0002845785538836962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H5">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I5">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J5">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>0.1870099604088889</v>
+        <v>0.006654703339999999</v>
       </c>
       <c r="R5">
-        <v>1.68308964368</v>
+        <v>0.05989233006</v>
       </c>
       <c r="S5">
-        <v>0.002511484643980216</v>
+        <v>8.982288082471058E-05</v>
       </c>
       <c r="T5">
-        <v>0.002511484643980216</v>
+        <v>8.982288082471061E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H6">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I6">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J6">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>8.057291539586668</v>
+        <v>0.4032298857855555</v>
       </c>
       <c r="R6">
-        <v>72.51562385628</v>
+        <v>3.62906897207</v>
       </c>
       <c r="S6">
-        <v>0.1082068780160107</v>
+        <v>0.005442657339534781</v>
       </c>
       <c r="T6">
-        <v>0.1082068780160107</v>
+        <v>0.005442657339534782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.7135533333333334</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H7">
-        <v>2.14066</v>
+        <v>0.14947</v>
       </c>
       <c r="I7">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="J7">
-        <v>0.1619590947855566</v>
+        <v>0.01255487033549651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>0.3357741757044445</v>
+        <v>0.009559818867777778</v>
       </c>
       <c r="R7">
-        <v>3.02196758134</v>
+        <v>0.08603836981</v>
       </c>
       <c r="S7">
-        <v>0.004509341022708136</v>
+        <v>0.0001290351240309719</v>
       </c>
       <c r="T7">
-        <v>0.004509341022708136</v>
+        <v>0.000129035124030972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H8">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I8">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J8">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>1.620866091386778</v>
+        <v>5.250924335764444</v>
       </c>
       <c r="R8">
-        <v>14.587794822481</v>
+        <v>47.25831902188</v>
       </c>
       <c r="S8">
-        <v>0.02176771916087008</v>
+        <v>0.07087515802484178</v>
       </c>
       <c r="T8">
-        <v>0.02176771916087008</v>
+        <v>0.0708751580248418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H9">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I9">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J9">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
-        <v>1.912203952676445</v>
+        <v>1.761310311484445</v>
       </c>
       <c r="R9">
-        <v>17.209835574088</v>
+        <v>15.85179280336</v>
       </c>
       <c r="S9">
-        <v>0.02568029452979282</v>
+        <v>0.02377355655403283</v>
       </c>
       <c r="T9">
-        <v>0.02568029452979282</v>
+        <v>0.02377355655403284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H10">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I10">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J10">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>0.2447498948516667</v>
+        <v>0.3019517477044444</v>
       </c>
       <c r="R10">
-        <v>2.202749053665</v>
+        <v>2.71756572934</v>
       </c>
       <c r="S10">
-        <v>0.003286913708723058</v>
+        <v>0.004075640109431143</v>
       </c>
       <c r="T10">
-        <v>0.003286913708723058</v>
+        <v>0.004075640109431145</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H11">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I11">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J11">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>0.2030313359048889</v>
+        <v>0.09530646451999999</v>
       </c>
       <c r="R11">
-        <v>1.827282023144</v>
+        <v>0.85775818068</v>
       </c>
       <c r="S11">
-        <v>0.002726646651638351</v>
+        <v>0.001286413648666789</v>
       </c>
       <c r="T11">
-        <v>0.002726646651638351</v>
+        <v>0.001286413648666789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H12">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I12">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J12">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>8.747569709552668</v>
+        <v>5.774925318162222</v>
       </c>
       <c r="R12">
-        <v>78.72812738597401</v>
+        <v>51.97432786346</v>
       </c>
       <c r="S12">
-        <v>0.1174770956031054</v>
+        <v>0.07794794179734077</v>
       </c>
       <c r="T12">
-        <v>0.1174770956031054</v>
+        <v>0.0779479417973408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7746843333333334</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H13">
-        <v>2.324053</v>
+        <v>2.14066</v>
       </c>
       <c r="I13">
-        <v>0.1758343315209595</v>
+        <v>0.179806708586231</v>
       </c>
       <c r="J13">
-        <v>0.1758343315209595</v>
+        <v>0.1798067085862311</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>0.3645403662274445</v>
+        <v>0.1369125701311111</v>
       </c>
       <c r="R13">
-        <v>3.280863296047</v>
+        <v>1.23221313118</v>
       </c>
       <c r="S13">
-        <v>0.004895661866829814</v>
+        <v>0.001847998451917712</v>
       </c>
       <c r="T13">
-        <v>0.004895661866829815</v>
+        <v>0.001847998451917712</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H14">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I14">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J14">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>2.558835862404667</v>
+        <v>7.235757839590446</v>
       </c>
       <c r="R14">
-        <v>23.029522761642</v>
+        <v>65.12182055631401</v>
       </c>
       <c r="S14">
-        <v>0.03436435664091894</v>
+        <v>0.09766575321177248</v>
       </c>
       <c r="T14">
-        <v>0.03436435664091896</v>
+        <v>0.09766575321177251</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H15">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I15">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J15">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>3.018766372090666</v>
+        <v>2.427080277556445</v>
       </c>
       <c r="R15">
-        <v>27.168897348816</v>
+        <v>21.843722498008</v>
       </c>
       <c r="S15">
-        <v>0.040541077976236</v>
+        <v>0.03275988896643409</v>
       </c>
       <c r="T15">
-        <v>0.04054107797623601</v>
+        <v>0.03275988896643409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H16">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I16">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J16">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.38638281817</v>
+        <v>0.4160885942974445</v>
       </c>
       <c r="R16">
-        <v>3.47744536353</v>
+        <v>3.744797348677</v>
       </c>
       <c r="S16">
-        <v>0.005188999090797251</v>
+        <v>0.005616219733410492</v>
       </c>
       <c r="T16">
-        <v>0.005188999090797253</v>
+        <v>0.005616219733410494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H17">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I17">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J17">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.3205223838453333</v>
+        <v>0.131332019606</v>
       </c>
       <c r="R17">
-        <v>2.884701454608</v>
+        <v>1.181988176454</v>
       </c>
       <c r="S17">
-        <v>0.004304514279984973</v>
+        <v>0.001772674113755204</v>
       </c>
       <c r="T17">
-        <v>0.004304514279984974</v>
+        <v>0.001772674113755204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H18">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I18">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J18">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>13.809651025852</v>
+        <v>7.957829607129223</v>
       </c>
       <c r="R18">
-        <v>124.286859232668</v>
+        <v>71.620466464163</v>
       </c>
       <c r="S18">
-        <v>0.1854592472738922</v>
+        <v>0.1074120278402255</v>
       </c>
       <c r="T18">
-        <v>0.1854592472738922</v>
+        <v>0.1074120278402256</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.222982</v>
+        <v>0.9832743333333335</v>
       </c>
       <c r="H19">
-        <v>3.668946</v>
+        <v>2.949823</v>
       </c>
       <c r="I19">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="J19">
-        <v>0.2775868998239275</v>
+        <v>0.2477731001382573</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.5754941554726666</v>
+        <v>0.1886651071921112</v>
       </c>
       <c r="R19">
-        <v>5.179447399253999</v>
+        <v>1.697985964729</v>
       </c>
       <c r="S19">
-        <v>0.007728704562098099</v>
+        <v>0.002546536272659489</v>
       </c>
       <c r="T19">
-        <v>0.007728704562098102</v>
+        <v>0.002546536272659489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H20">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I20">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J20">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>3.545479327403667</v>
+        <v>9.781096964811333</v>
       </c>
       <c r="R20">
-        <v>31.90931394663301</v>
+        <v>88.029872683302</v>
       </c>
       <c r="S20">
-        <v>0.04761466644265634</v>
+        <v>0.1320218591449919</v>
       </c>
       <c r="T20">
-        <v>0.04761466644265634</v>
+        <v>0.1320218591449919</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H21">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I21">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J21">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>4.182751197042667</v>
+        <v>3.280859871549334</v>
       </c>
       <c r="R21">
-        <v>37.644760773384</v>
+        <v>29.527738843944</v>
       </c>
       <c r="S21">
-        <v>0.05617302617461656</v>
+        <v>0.04428391021931732</v>
       </c>
       <c r="T21">
-        <v>0.05617302617461656</v>
+        <v>0.04428391021931733</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H22">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I22">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J22">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>0.5353654427050001</v>
+        <v>0.5624570331123333</v>
       </c>
       <c r="R22">
-        <v>4.818288984345</v>
+        <v>5.062113298011</v>
       </c>
       <c r="S22">
-        <v>0.007189788636559533</v>
+        <v>0.007591850225778723</v>
       </c>
       <c r="T22">
-        <v>0.007189788636559533</v>
+        <v>0.007591850225778725</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H23">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I23">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J23">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.4441103482213334</v>
+        <v>0.177530985258</v>
       </c>
       <c r="R23">
-        <v>3.996993133992</v>
+        <v>1.597778867322</v>
       </c>
       <c r="S23">
-        <v>0.00596426156848472</v>
+        <v>0.002396251751099514</v>
       </c>
       <c r="T23">
-        <v>0.00596426156848472</v>
+        <v>0.002396251751099515</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.694543</v>
+        <v>1.329163</v>
       </c>
       <c r="H24">
-        <v>5.083629</v>
+        <v>3.987489</v>
       </c>
       <c r="I24">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626656</v>
       </c>
       <c r="J24">
-        <v>0.3846196738695563</v>
+        <v>0.3349328116626657</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>19.134416923798</v>
+        <v>10.75717357356767</v>
       </c>
       <c r="R24">
-        <v>172.209752314182</v>
+        <v>96.814562162109</v>
       </c>
       <c r="S24">
-        <v>0.2569691698269012</v>
+        <v>0.1451966031455423</v>
       </c>
       <c r="T24">
-        <v>0.2569691698269012</v>
+        <v>0.1451966031455423</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.329163</v>
+      </c>
+      <c r="H25">
+        <v>3.987489</v>
+      </c>
+      <c r="I25">
+        <v>0.3349328116626656</v>
+      </c>
+      <c r="J25">
+        <v>0.3349328116626657</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1918743333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.575623</v>
+      </c>
+      <c r="O25">
+        <v>0.01027769467806845</v>
+      </c>
+      <c r="P25">
+        <v>0.01027769467806845</v>
+      </c>
+      <c r="Q25">
+        <v>0.2550322645163334</v>
+      </c>
+      <c r="R25">
+        <v>2.295290380647</v>
+      </c>
+      <c r="S25">
+        <v>0.003442337175935882</v>
+      </c>
+      <c r="T25">
+        <v>0.003442337175935882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.677898</v>
+      </c>
+      <c r="I26">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J26">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.358839333333333</v>
+      </c>
+      <c r="N26">
+        <v>22.076518</v>
+      </c>
+      <c r="O26">
+        <v>0.3941741583621265</v>
+      </c>
+      <c r="P26">
+        <v>0.3941741583621266</v>
+      </c>
+      <c r="Q26">
+        <v>6.568740377684889</v>
+      </c>
+      <c r="R26">
+        <v>59.118663399164</v>
+      </c>
+      <c r="S26">
+        <v>0.08866258253268046</v>
+      </c>
+      <c r="T26">
+        <v>0.08866258253268047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H27">
+        <v>2.677898</v>
+      </c>
+      <c r="I27">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J27">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N27">
+        <v>7.405096</v>
+      </c>
+      <c r="O27">
+        <v>0.1322172945656896</v>
+      </c>
+      <c r="P27">
+        <v>0.1322172945656897</v>
+      </c>
+      <c r="Q27">
+        <v>2.203343529800889</v>
+      </c>
+      <c r="R27">
+        <v>19.830091768208</v>
+      </c>
+      <c r="S27">
+        <v>0.02973996783652303</v>
+      </c>
+      <c r="T27">
+        <v>0.02973996783652304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H28">
+        <v>2.677898</v>
+      </c>
+      <c r="I28">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J28">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4231663333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.269499</v>
+      </c>
+      <c r="O28">
+        <v>0.02266678558034203</v>
+      </c>
+      <c r="P28">
+        <v>0.02266678558034203</v>
+      </c>
+      <c r="Q28">
+        <v>0.3777320925668888</v>
+      </c>
+      <c r="R28">
+        <v>3.399588833102</v>
+      </c>
+      <c r="S28">
+        <v>0.005098496957837975</v>
+      </c>
+      <c r="T28">
+        <v>0.005098496957837977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.694543</v>
-      </c>
-      <c r="H25">
-        <v>5.083629</v>
-      </c>
-      <c r="I25">
-        <v>0.3846196738695563</v>
-      </c>
-      <c r="J25">
-        <v>0.3846196738695563</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.4705663333333334</v>
-      </c>
-      <c r="N25">
-        <v>1.411699</v>
-      </c>
-      <c r="O25">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="P25">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="Q25">
-        <v>0.7973948861856668</v>
-      </c>
-      <c r="R25">
-        <v>7.176553975671</v>
-      </c>
-      <c r="S25">
-        <v>0.010708761220338</v>
-      </c>
-      <c r="T25">
-        <v>0.010708761220338</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H29">
+        <v>2.677898</v>
+      </c>
+      <c r="I29">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J29">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.133566</v>
+      </c>
+      <c r="N29">
+        <v>0.400698</v>
+      </c>
+      <c r="O29">
+        <v>0.0071544252090564</v>
+      </c>
+      <c r="P29">
+        <v>0.007154425209056401</v>
+      </c>
+      <c r="Q29">
+        <v>0.119225374756</v>
+      </c>
+      <c r="R29">
+        <v>1.073028372804</v>
+      </c>
+      <c r="S29">
+        <v>0.001609262814710182</v>
+      </c>
+      <c r="T29">
+        <v>0.001609262814710182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H30">
+        <v>2.677898</v>
+      </c>
+      <c r="I30">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J30">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.093193666666666</v>
+      </c>
+      <c r="N30">
+        <v>24.279581</v>
+      </c>
+      <c r="O30">
+        <v>0.4335096416047168</v>
+      </c>
+      <c r="P30">
+        <v>0.4335096416047168</v>
+      </c>
+      <c r="Q30">
+        <v>7.224249044526443</v>
+      </c>
+      <c r="R30">
+        <v>65.01824140073799</v>
+      </c>
+      <c r="S30">
+        <v>0.0975104114820734</v>
+      </c>
+      <c r="T30">
+        <v>0.09751041148207343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8926326666666666</v>
+      </c>
+      <c r="H31">
+        <v>2.677898</v>
+      </c>
+      <c r="I31">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="J31">
+        <v>0.2249325092773495</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1918743333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.575623</v>
+      </c>
+      <c r="O31">
+        <v>0.01027769467806845</v>
+      </c>
+      <c r="P31">
+        <v>0.01027769467806845</v>
+      </c>
+      <c r="Q31">
+        <v>0.1712732978282222</v>
+      </c>
+      <c r="R31">
+        <v>1.541459680454</v>
+      </c>
+      <c r="S31">
+        <v>0.002311787653524397</v>
+      </c>
+      <c r="T31">
+        <v>0.002311787653524398</v>
       </c>
     </row>
   </sheetData>
